--- a/lab/e/mau-excel-0.xlsx
+++ b/lab/e/mau-excel-0.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="24000" windowHeight="9735" tabRatio="677"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="24000" windowHeight="9735" tabRatio="677"/>
   </bookViews>
   <sheets>
     <sheet name="tong hop lai" sheetId="36" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tong hop lai'!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tong hop lai'!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>STT</t>
   </si>
@@ -48,14 +48,6 @@
   </si>
   <si>
     <t>Số điện thoại</t>
-  </si>
-  <si>
-    <t>Ngày ghi 
-biên lai</t>
-  </si>
-  <si>
-    <t>Mã số 
-biên lai</t>
   </si>
   <si>
     <t>Ghi chú</t>
@@ -309,33 +301,33 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,13 +626,11 @@
     <col min="7" max="7" width="8.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="11.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -648,10 +638,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>5</v>
@@ -669,293 +659,250 @@
         <v>6</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="11"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="13"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="13"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
+      <c r="L1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="13"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A3:M230">
-    <sortCondition ref="J3:J230"/>
-  </sortState>
   <mergeCells count="1">
-    <mergeCell ref="N1:P4"/>
+    <mergeCell ref="L1:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
